--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value35.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value35.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8248058693592153</v>
+        <v>2.151055335998535</v>
       </c>
       <c r="B1">
-        <v>0.8663074149355317</v>
+        <v>2.59734582901001</v>
       </c>
       <c r="C1">
-        <v>0.9720735184626464</v>
+        <v>3.501146078109741</v>
       </c>
       <c r="D1">
-        <v>1.503796379637615</v>
+        <v>6.229983329772949</v>
       </c>
       <c r="E1">
-        <v>3.195253271311773</v>
+        <v>1.969773292541504</v>
       </c>
     </row>
   </sheetData>
